--- a/digital-objects/omap/10-palatine-tonsil-mics/v1.2/raw/omap-10-palatine-tonsil-mics.xlsx
+++ b/digital-objects/omap/10-palatine-tonsil-mics/v1.2/raw/omap-10-palatine-tonsil-mics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Documents/GitHub/hra-kg/digital-objects/omap/10-palatine-tonsil-mics/v1.1/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishi/codeBase/CNS/hra-kg/digital-objects/omap/10-palatine-tonsil-mics/v1.2/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6439A-6545-9D4D-888C-77C6ED897120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0749A2A-27BB-A54C-B597-462579DEBE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="760" windowWidth="34560" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="8320" windowWidth="34200" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="omap-10-palatine-tonsil-macsima" sheetId="1" r:id="rId1"/>
@@ -6263,12 +6263,6 @@
     <t>target_symbol</t>
   </si>
   <si>
-    <t>June 15, 2024</t>
-  </si>
-  <si>
-    <t>v1.1</t>
-  </si>
-  <si>
     <t>dilution_factor</t>
   </si>
   <si>
@@ -6279,6 +6273,12 @@
   </si>
   <si>
     <t>MICS</t>
+  </si>
+  <si>
+    <t>June 15, 2025</t>
+  </si>
+  <si>
+    <t>v1.2</t>
   </si>
 </sst>
 </file>
@@ -6931,7 +6931,7 @@
   <dimension ref="A1:AR999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7312,7 +7312,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="7"/>
@@ -7362,7 +7362,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="7"/>
@@ -7412,7 +7412,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="11"/>
@@ -7498,7 +7498,7 @@
         <v>26</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>28</v>
@@ -7522,7 +7522,7 @@
         <v>34</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="W11" s="11" t="s">
         <v>35</v>
@@ -7601,7 +7601,7 @@
         <v>51</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R12" s="8" t="s">
         <v>52</v>
@@ -7693,7 +7693,7 @@
         <v>67</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>52</v>
@@ -7785,7 +7785,7 @@
         <v>78</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>52</v>
@@ -7877,7 +7877,7 @@
         <v>88</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>52</v>
@@ -7969,7 +7969,7 @@
         <v>98</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>52</v>
@@ -8061,7 +8061,7 @@
         <v>109</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R17" s="8" t="s">
         <v>52</v>
@@ -8153,7 +8153,7 @@
         <v>120</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>52</v>
@@ -8245,7 +8245,7 @@
         <v>130</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>52</v>
@@ -8337,7 +8337,7 @@
         <v>140</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R20" s="8" t="s">
         <v>52</v>
@@ -8429,7 +8429,7 @@
         <v>150</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>52</v>
@@ -8521,7 +8521,7 @@
         <v>160</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R22" s="8" t="s">
         <v>52</v>
@@ -8613,7 +8613,7 @@
         <v>170</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R23" s="8" t="s">
         <v>52</v>
@@ -8705,7 +8705,7 @@
         <v>180</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R24" s="8" t="s">
         <v>52</v>
@@ -8797,7 +8797,7 @@
         <v>190</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>52</v>
@@ -8889,7 +8889,7 @@
         <v>200</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>52</v>
@@ -8981,7 +8981,7 @@
         <v>210</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>52</v>
@@ -9073,7 +9073,7 @@
         <v>220</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R28" s="8" t="s">
         <v>52</v>
@@ -9165,7 +9165,7 @@
         <v>229</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>52</v>
@@ -9257,7 +9257,7 @@
         <v>238</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>52</v>
@@ -9349,7 +9349,7 @@
         <v>247</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R31" s="8" t="s">
         <v>52</v>
@@ -9441,7 +9441,7 @@
         <v>256</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R32" s="8" t="s">
         <v>52</v>
@@ -9533,7 +9533,7 @@
         <v>265</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>52</v>
@@ -9625,7 +9625,7 @@
         <v>276</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R34" s="8" t="s">
         <v>52</v>
@@ -9717,7 +9717,7 @@
         <v>285</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R35" s="8" t="s">
         <v>52</v>
@@ -9809,7 +9809,7 @@
         <v>294</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R36" s="8" t="s">
         <v>52</v>
@@ -9901,7 +9901,7 @@
         <v>303</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R37" s="8" t="s">
         <v>52</v>
@@ -9993,7 +9993,7 @@
         <v>312</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R38" s="8" t="s">
         <v>52</v>
@@ -10085,7 +10085,7 @@
         <v>321</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R39" s="8" t="s">
         <v>52</v>
@@ -10177,7 +10177,7 @@
         <v>330</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R40" s="8" t="s">
         <v>52</v>
@@ -10269,7 +10269,7 @@
         <v>339</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="R41" s="8" t="s">
         <v>52</v>
